--- a/bot-insta/infHack.xlsx
+++ b/bot-insta/infHack.xlsx
@@ -22,40 +22,40 @@
     <t>solicitado</t>
   </si>
   <si>
-    <t>o_andrade_012 </t>
+    <t>dereck_felipe </t>
   </si>
   <si>
-    <t>culinhamotos </t>
+    <t>rebekatrancistajacarei </t>
   </si>
   <si>
     <t>jpv_kauazin_marvado_012 </t>
   </si>
   <si>
+    <t>nick_ff_10 </t>
+  </si>
+  <si>
+    <t>o_andrade_012 </t>
+  </si>
+  <si>
+    <t>_pedrinff3 </t>
+  </si>
+  <si>
+    <t>joanakeilla23 </t>
+  </si>
+  <si>
+    <t>_catcunha_ </t>
+  </si>
+  <si>
     <t>_eai_vitinho </t>
+  </si>
+  <si>
+    <t>biankinha_sousa </t>
   </si>
   <si>
     <t>yamatequiero </t>
   </si>
   <si>
-    <t>dereck_felipe </t>
-  </si>
-  <si>
-    <t>natalianaty1206 </t>
-  </si>
-  <si>
-    <t>mc_croco_oficial </t>
-  </si>
-  <si>
-    <t>nego_gooll11 </t>
-  </si>
-  <si>
-    <t>rebekinha64 </t>
-  </si>
-  <si>
-    <t>isaac_davi_10 </t>
-  </si>
-  <si>
-    <t>domingojenniferelijah </t>
+    <t>kauankarioca </t>
   </si>
 </sst>
 </file>
@@ -95,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -117,7 +117,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -125,7 +125,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -133,30 +133,36 @@
         <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="0" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="0" t="s">
+    <row r="9" spans="2:2">
+      <c r="B9" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="0" t="s">
+    <row r="10" spans="2:2">
+      <c r="B10" s="0" t="s">
         <v>14</v>
       </c>
     </row>
